--- a/backtesting/gld_gdx_algo/gld2.xlsx
+++ b/backtesting/gld_gdx_algo/gld2.xlsx
@@ -8727,7 +8727,7 @@
         <v>164.8099975585938</v>
       </c>
       <c r="G362">
-        <v>4816000</v>
+        <v>4874700</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -8773,7 +8773,7 @@
         <v>167.2599945068359</v>
       </c>
       <c r="G364">
-        <v>5185500</v>
+        <v>5185900</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8888,7 +8888,7 @@
         <v>167.0599975585938</v>
       </c>
       <c r="G369">
-        <v>5430400</v>
+        <v>5431300</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -9003,7 +9003,7 @@
         <v>166.7899932861328</v>
       </c>
       <c r="G374">
-        <v>5370300</v>
+        <v>5372000</v>
       </c>
     </row>
     <row r="375" spans="1:7">
